--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_20_43.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_20_43.xlsx
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>77181.38659992762</v>
+        <v>5151068.340509114</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>77181.38659992762</v>
+        <v>5151068.340509114</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1036779650.904172</v>
+        <v>39761880.76448432</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12110.46177979262</v>
+        <v>1097723.167015671</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>22259.67670317278</v>
+        <v>1855691.197145291</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>32413.90166807197</v>
+        <v>2613659.227274911</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>42774.72380145357</v>
+        <v>3370867.559861679</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>53135.52484083</v>
+        <v>4128075.892448447</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>63496.34378786842</v>
+        <v>4885284.225035214</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>73857.10862949882</v>
+        <v>5642492.557621976</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>84217.92757653726</v>
+        <v>6399700.890208739</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>94578.74970991883</v>
+        <v>7156909.222795502</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>104939.5145515493</v>
+        <v>7914117.555382266</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>115300.3366849309</v>
+        <v>8671325.887969028</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>125661.1588183125</v>
+        <v>9428534.220555797</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>136021.9809516941</v>
+        <v>10185742.55314257</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>146382.8030850757</v>
+        <v>10942950.88572935</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>156743.6252184574</v>
+        <v>11700159.21831612</v>
       </c>
     </row>
   </sheetData>
